--- a/禹逸雄-设备使用登记表.xlsx
+++ b/禹逸雄-设备使用登记表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUYixiong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA573E-DB3A-4543-B4C0-A16B513FD05E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE83D3E-4351-4202-A0D2-EC9CCB3BB511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="485">
   <si>
     <t>设备使用登记表</t>
   </si>
@@ -1471,6 +1471,22 @@
   </si>
   <si>
     <t>2021.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingston DataTraveler 3.0 USB Device</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingston SA2000M8/250GBkcn-L</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiuHu-015uF</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1478,7 +1494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,6 +1553,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1629,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,6 +1712,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,9 +1727,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2051,35 +2075,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -2191,7 +2215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -2220,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -2249,17 +2273,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="21" t="s">
+        <v>481</v>
+      </c>
       <c r="E8" s="18" t="s">
         <v>46</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>482</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>18</v>
@@ -2271,19 +2302,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="21" t="s">
+        <v>483</v>
+      </c>
       <c r="E9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="21" t="s">
         <v>480</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -2296,19 +2331,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>479</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="21" t="s">
         <v>480</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -2339,34 +2376,34 @@
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
     <col min="10" max="16381" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2395,7 +2432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2424,7 +2461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2453,7 +2490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2480,7 +2517,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2507,7 +2544,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2536,7 +2573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2563,7 +2600,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2590,7 +2627,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2617,7 +2654,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2644,7 +2681,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2671,7 +2708,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2698,7 +2735,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2725,7 +2762,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2752,7 +2789,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2779,7 +2816,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2808,7 +2845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -2835,7 +2872,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2862,7 +2899,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2891,7 +2928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -2918,7 +2955,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -2947,7 +2984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -2974,7 +3011,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -3001,7 +3038,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -3028,7 +3065,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -3057,7 +3094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -3084,7 +3121,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -3111,7 +3148,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -3140,7 +3177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -3167,7 +3204,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -3194,7 +3231,7 @@
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -3219,7 +3256,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -3246,7 +3283,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -3275,7 +3312,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -3304,7 +3341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>34</v>
       </c>
@@ -3331,7 +3368,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>35</v>
       </c>
@@ -3358,7 +3395,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>36</v>
       </c>
@@ -3385,7 +3422,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>37</v>
       </c>
@@ -3412,7 +3449,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>38</v>
       </c>
@@ -3439,7 +3476,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>39</v>
       </c>
@@ -3466,7 +3503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>40</v>
       </c>
@@ -3493,7 +3530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>41</v>
       </c>
@@ -3520,7 +3557,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>42</v>
       </c>
@@ -3547,7 +3584,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>43</v>
       </c>
@@ -3576,7 +3613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>44</v>
       </c>
@@ -3605,7 +3642,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>45</v>
       </c>
@@ -3632,7 +3669,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>46</v>
       </c>
@@ -3659,7 +3696,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>47</v>
       </c>
@@ -3686,7 +3723,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>48</v>
       </c>
@@ -3713,7 +3750,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>49</v>
       </c>
@@ -3740,7 +3777,7 @@
       </c>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>50</v>
       </c>
@@ -3769,7 +3806,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>51</v>
       </c>
@@ -3798,7 +3835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>52</v>
       </c>
@@ -3827,7 +3864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>53</v>
       </c>
@@ -3856,7 +3893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>54</v>
       </c>
@@ -3885,7 +3922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>55</v>
       </c>
@@ -3912,7 +3949,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>56</v>
       </c>
@@ -3939,7 +3976,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>57</v>
       </c>
@@ -3966,7 +4003,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>58</v>
       </c>
@@ -3993,7 +4030,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>59</v>
       </c>
@@ -4018,7 +4055,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>60</v>
       </c>
@@ -4047,7 +4084,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>61</v>
       </c>
@@ -4076,7 +4113,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>62</v>
       </c>
@@ -4103,7 +4140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>63</v>
       </c>
@@ -4132,7 +4169,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>64</v>
       </c>
@@ -4159,7 +4196,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>65</v>
       </c>
@@ -4186,7 +4223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>66</v>
       </c>
@@ -4215,7 +4252,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>67</v>
       </c>
@@ -4244,7 +4281,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>68</v>
       </c>
@@ -4273,7 +4310,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>69</v>
       </c>
@@ -4302,7 +4339,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>70</v>
       </c>
@@ -4331,7 +4368,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>71</v>
       </c>
@@ -4360,7 +4397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>72</v>
       </c>
@@ -4389,7 +4426,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>73</v>
       </c>
@@ -4418,7 +4455,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>74</v>
       </c>
@@ -4447,7 +4484,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>75</v>
       </c>
@@ -4476,7 +4513,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>76</v>
       </c>
@@ -4505,7 +4542,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>77</v>
       </c>
@@ -4534,7 +4571,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>78</v>
       </c>
@@ -4563,7 +4600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>79</v>
       </c>
@@ -4592,7 +4629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>80</v>
       </c>
@@ -4621,7 +4658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>81</v>
       </c>
@@ -4650,7 +4687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>82</v>
       </c>
@@ -4679,7 +4716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>83</v>
       </c>
@@ -4708,7 +4745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>84</v>
       </c>
@@ -4737,7 +4774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>85</v>
       </c>
@@ -4766,7 +4803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>86</v>
       </c>
@@ -4795,7 +4832,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>87</v>
       </c>
@@ -4824,7 +4861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>88</v>
       </c>
@@ -4853,7 +4890,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>89</v>
       </c>
@@ -4882,7 +4919,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>90</v>
       </c>
@@ -4911,7 +4948,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>91</v>
       </c>
@@ -4940,7 +4977,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>92</v>
       </c>
@@ -4969,7 +5006,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>93</v>
       </c>
@@ -4998,7 +5035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>94</v>
       </c>
@@ -5027,7 +5064,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>95</v>
       </c>
@@ -5056,7 +5093,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>96</v>
       </c>
@@ -5083,7 +5120,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>97</v>
       </c>
@@ -5110,7 +5147,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>98</v>
       </c>
@@ -5137,7 +5174,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>99</v>
       </c>
@@ -5164,7 +5201,7 @@
       </c>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>100</v>
       </c>
@@ -5189,7 +5226,7 @@
       </c>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>101</v>
       </c>
@@ -5210,7 +5247,7 @@
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>102</v>
       </c>
@@ -5231,7 +5268,7 @@
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>103</v>
       </c>
@@ -5256,7 +5293,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>104</v>
       </c>
@@ -5279,7 +5316,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>105</v>
       </c>
@@ -5302,7 +5339,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>106</v>
       </c>
@@ -5325,7 +5362,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>107</v>
       </c>
@@ -5348,7 +5385,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>108</v>
       </c>
@@ -5369,7 +5406,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>109</v>
       </c>
@@ -5394,7 +5431,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>110</v>
       </c>
@@ -5442,33 +5479,33 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5497,7 +5534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5526,7 +5563,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -5551,7 +5588,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -5578,7 +5615,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -5607,7 +5644,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -5636,7 +5673,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5663,7 +5700,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -5692,7 +5729,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -5721,7 +5758,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -5750,7 +5787,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -5779,7 +5816,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -5808,7 +5845,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -5837,7 +5874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -5864,7 +5901,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -5887,7 +5924,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -5910,7 +5947,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -5937,7 +5974,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -5964,7 +6001,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -5989,7 +6026,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -6014,7 +6051,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -6041,7 +6078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -6068,7 +6105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -6093,7 +6130,7 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -6118,7 +6155,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -6141,7 +6178,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -6162,7 +6199,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -6191,7 +6228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -6220,7 +6257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -6247,7 +6284,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -6274,7 +6311,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -6299,7 +6336,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -6328,7 +6365,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -6357,7 +6394,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -6382,7 +6419,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -6409,7 +6446,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -6438,7 +6475,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -6465,7 +6502,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -6488,7 +6525,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -6513,7 +6550,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -6538,7 +6575,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -6559,7 +6596,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -6582,7 +6619,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -6607,7 +6644,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -6634,7 +6671,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -6657,7 +6694,7 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -6680,7 +6717,7 @@
       </c>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -6707,7 +6744,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -6732,7 +6769,7 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -6759,7 +6796,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -6786,7 +6823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -6813,7 +6850,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -6842,7 +6879,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -6871,7 +6908,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -6898,7 +6935,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -6927,7 +6964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -6956,7 +6993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -6983,7 +7020,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -7008,7 +7045,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -7037,7 +7074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -7064,7 +7101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -7089,7 +7126,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -7114,7 +7151,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -7143,7 +7180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -7166,7 +7203,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -7191,7 +7228,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -7216,7 +7253,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -7241,7 +7278,7 @@
       </c>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -7266,7 +7303,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -7289,7 +7326,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -7312,7 +7349,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>70</v>
       </c>
@@ -7339,7 +7376,7 @@
       </c>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -7366,7 +7403,7 @@
       </c>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -7389,7 +7426,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -7410,7 +7447,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>74</v>
       </c>
@@ -7431,7 +7468,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>75</v>
       </c>
